--- a/sputnik/personal/uch/uch110.xlsx
+++ b/sputnik/personal/uch/uch110.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
@@ -43,13 +40,19 @@
   </si>
   <si>
     <t>Начислены пени за 84 дня</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №110</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +75,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -192,15 +207,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -262,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,10 +329,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,7 +363,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -505,7 +538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -515,7 +548,7 @@
       <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -524,12 +557,14 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -537,108 +572,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="18">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
         <v>12115.25</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="18">
         <v>43330</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="18">
         <v>43400</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
         <v>7115.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="19">
         <v>43400</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>185</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="20">
+        <v>43400</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16">
         <v>185</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>43400</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A8" s="18">
+        <v>43586</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>43586</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="C8" s="7">
         <v>11943.25</v>
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A9" s="18">
         <v>43745</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9">
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:4">
+      <c r="A10" s="21">
         <v>43823</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9">
         <v>6943.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+    <row r="11" spans="1:4">
+      <c r="A11" s="22">
         <v>43823</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="11">
         <v>585.75</v>
@@ -646,9 +681,6 @@
       <c r="D11" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -656,12 +688,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -670,12 +702,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch110.xlsx
+++ b/sputnik/personal/uch/uch110.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,13 +46,16 @@
   </si>
   <si>
     <t>Наименование / садовый участок №110</t>
+  </si>
+  <si>
+    <t>оплчены пени</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,19 +73,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +97,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -179,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -200,20 +202,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -225,7 +223,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -234,9 +232,15 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -297,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +333,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +368,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -538,17 +544,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="A11" sqref="A11:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -557,12 +563,12 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -572,8 +578,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="18">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -584,8 +590,8 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="18">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>43330</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -596,8 +602,8 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="18">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>43400</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -608,32 +614,32 @@
         <v>7115.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="19">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>43400</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>185</v>
       </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="20">
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>43400</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A8" s="18">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>43586</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -644,8 +650,8 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A9" s="18">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>43745</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -656,8 +662,8 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="21">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
         <v>43823</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -668,17 +674,29 @@
         <v>6943.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="22">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
         <v>43823</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="22">
         <v>585.75</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>43886</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22">
+        <v>585.75</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -688,12 +706,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -702,12 +720,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch110.xlsx
+++ b/sputnik/personal/uch/uch110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>оплчены пени</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -241,6 +244,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,10 +552,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,6 +700,17 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22">
         <v>585.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>43952</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13437.5</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch110.xlsx
+++ b/sputnik/personal/uch/uch110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -552,10 +552,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -711,6 +711,17 @@
       </c>
       <c r="C13" s="1">
         <v>13437.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>44109</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch110.xlsx
+++ b/sputnik/personal/uch/uch110.xlsx
@@ -244,7 +244,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -552,10 +552,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -706,12 +706,13 @@
       <c r="A13" s="25">
         <v>43952</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>13437.5</v>
       </c>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
@@ -720,9 +721,22 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
         <v>4000</v>
       </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch110.xlsx
+++ b/sputnik/personal/uch/uch110.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислены пени за 71 дня</t>
+  </si>
+  <si>
+    <t>Начислены пени за 91 день</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -245,6 +251,8 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -552,10 +560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -709,10 +717,10 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>13437.5</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
@@ -721,22 +729,101 @@
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
         <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="25">
+        <v>44176</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9">
+        <v>5000</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="26">
+        <v>44176</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="27">
+        <v>355</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>44189</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>44189</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="27">
+        <f>PRODUCT(D17,0.001,84)</f>
+        <v>168</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>44196</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8">
+        <v>2437.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>44196</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="27">
+        <f>PRODUCT(D19,0.001,91)</f>
+        <v>221.8125</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="9">
+        <f>SUM(C3:C20)</f>
+        <v>39011.5625</v>
+      </c>
+      <c r="D21" s="9">
+        <f>SUM(D3:D20)</f>
+        <v>38266.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="D22" s="9">
+        <f>SUM(D21,-C21)</f>
+        <v>-744.8125</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch110.xlsx
+++ b/sputnik/personal/uch/uch110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Начислены пени за 91 день</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -253,6 +256,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -560,10 +568,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -809,19 +817,31 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="9">
+      <c r="A21" s="28">
+        <v>44317</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="30">
+        <v>14329.75</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="9">
         <f>SUM(C3:C20)</f>
         <v>39011.5625</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <f>SUM(D3:D20)</f>
         <v>38266.75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
-      <c r="D22" s="9">
-        <f>SUM(D21,-C21)</f>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="D23" s="9">
+        <f>SUM(D22,-C22)</f>
         <v>-744.8125</v>
       </c>
     </row>

--- a/sputnik/personal/uch/uch110.xlsx
+++ b/sputnik/personal/uch/uch110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Начислены пени за 91 день</t>
   </si>
   <si>
-    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+    <t>Начислен членский взнос</t>
   </si>
 </sst>
 </file>
@@ -256,11 +256,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -568,10 +568,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -817,33 +817,53 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="29">
         <v>44317</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="28">
         <v>14329.75</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="9">
-        <f>SUM(C3:C20)</f>
-        <v>39011.5625</v>
-      </c>
-      <c r="D22" s="9">
-        <f>SUM(D3:D20)</f>
-        <v>38266.75</v>
+      <c r="A22" s="29">
+        <v>44466</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="8">
+        <v>14329.75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="9">
+        <f>SUM(C3:C22)</f>
+        <v>53341.3125</v>
+      </c>
       <c r="D23" s="9">
-        <f>SUM(D22,-C22)</f>
+        <f>SUM(D3:D22)</f>
+        <v>52596.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9">
+        <f>SUM(D23,-C23)</f>
         <v>-744.8125</v>
       </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch110.xlsx
+++ b/sputnik/personal/uch/uch110.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C20" sqref="C16:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,7 +856,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="9">
+      <c r="D24" s="27">
         <f>SUM(D23,-C23)</f>
         <v>-744.8125</v>
       </c>
